--- a/example.xlsx
+++ b/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/tdi/webinars/excel-to-pandas-demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF8EDD0-A24A-1943-B4E7-78CAD40B90CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1205A1D3-8191-C949-8115-23904778BAE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8A092BE7-162A-4C05-85FB-C543F02A75AE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{8A092BE7-162A-4C05-85FB-C543F02A75AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>2020 March</t>
   </si>
   <si>
-    <t>Blog Posts: Tutorials</t>
-  </si>
-  <si>
     <t>Using Regular Expressions with Pandas</t>
   </si>
   <si>
@@ -99,10 +96,13 @@
     <t>First 14 Days</t>
   </si>
   <si>
-    <t xml:space="preserve">   New Student: First-time Freshmen   Run Date: 4/30/2020</t>
-  </si>
-  <si>
     <t>Blog Engagement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Period: 2020 March Campaign: Blogs: Tutorials  Run Date: 4/30/2020</t>
+  </si>
+  <si>
+    <t>Tutorials</t>
   </si>
 </sst>
 </file>
@@ -247,46 +247,46 @@
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="17" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -606,7 +606,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -621,94 +621,94 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>4</v>
+      <c r="A4" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="6"/>
+      <c r="A8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="16"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="17"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="13" t="s">
+      <c r="G12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="14" t="s">
+      <c r="C13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="D13" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>17</v>
       </c>
       <c r="E13" s="2">
         <v>1200</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="13">
         <v>2750</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="13">
         <v>3149</v>
       </c>
       <c r="H13" s="2">
@@ -716,25 +716,25 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="14" t="s">
+      <c r="A14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>18</v>
+      <c r="D14" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="E14" s="2">
         <v>859</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="14">
         <v>1209</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="14">
         <v>1503</v>
       </c>
       <c r="H14" s="2">
@@ -742,25 +742,25 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="14" t="s">
+      <c r="A15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>19</v>
+      <c r="D15" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="E15" s="2">
         <v>630</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="14">
         <v>1131</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="14">
         <v>1320</v>
       </c>
       <c r="H15" s="2">
